--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Littleton_Powys/Thomas_Littleton_Powys.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Littleton_Powys/Thomas_Littleton_Powys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Littleton Powys (18 mars 1833 – 17 juin 1896), 4e baron Lilford, est un aristocrate et ornithologue anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'un des huit fondateurs de la British Ornithologists' Union en 1858 et son président de 1867 à sa mort. Il est aussi le premier président de la Northamptonshire Natural History Society.
 Il a beaucoup voyagé, particulièrement dans la région méditerranéenne, et sa grande collection d'oiseaux est maintenue dans le sous-sol de sa maison, Lilford Hall, jusqu'en 1991. Ses volières comportent des oiseaux de tous les pays, notamment des nandous, des kiwis, des canards à tête rose et même un couple de gypaètes barbus. Il est responsable de l'introduction de la chouette chevêche en Angleterre dans les années 1880.
